--- a/biology/Microbiologie/Veillonella/Veillonella.xlsx
+++ b/biology/Microbiologie/Veillonella/Veillonella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veillonella est un genre de bactéries de la famille des Veillonellaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,14 +551,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Veillonella Prévot 1933[1].
-L'espèce type est : Veillonella parvula (Veillon &amp; Zuber 1898) Prévot 1933[1].
-Étymologie
-L'étymologie de cette famille Veillonellaceae est la suivante : Veil.lon.el’la. N.L. fem. dim. n. Veillonella, nommée d'après Adrien Veillon, le microbiologiste français qui a isolé l'espèce type[2].
-Liste des espèces valides
-Selon LPSN  (27 juin 2023)[1], le genre Veillonella comprend 16 espèces publiées de manière valide et au nom correct selon l'ICSP, ce sont les suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Veillonella Prévot 1933.
+L'espèce type est : Veillonella parvula (Veillon &amp; Zuber 1898) Prévot 1933.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Veillonella</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veillonella</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette famille Veillonellaceae est la suivante : Veil.lon.el’la. N.L. fem. dim. n. Veillonella, nommée d'après Adrien Veillon, le microbiologiste français qui a isolé l'espèce type.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Veillonella</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veillonella</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces valides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (27 juin 2023), le genre Veillonella comprend 16 espèces publiées de manière valide et au nom correct selon l'ICSP, ce sont les suivants :
 Veillonella atypica (Rogosa 1965) Mays et al. 1982
 Veillonella caviae Mays et al. 1982
 Veillonella criceti (Rogosa 1965) Mays et al. 1982
@@ -560,12 +646,80 @@
 Veillonella rodentium (Rogosa 1965) Mays et al. 1982
 Veillonella rogosae Arif et al. 2008
 Veillonella seminalis Aujoulat et al. 2014
-Veillonella tobetsuensis Mashima et al. 2013
-Liste des espèces synonymes
-Selon LPSN  (27 juin 2023)[1], le genre Veillonella comprend une espèce synonyme. Il s'agit de la suivante :
-Veillonella alcalescens Prévot 1933 reconnue synonyme hétérotypique de Veillonella parvula (Veillon and Zuber 1898) Prévot 1933[3].
-Espèces publiées de manière non valide
-Selon LPSN  (27 juin 2023)[1], le genre Veillonella comprend aussi quatre espèces qui ont été publiées de manière non valide. Pour ces quatre espèce, le nom publié reste actuellement le nom préféré (mais non correct) et sont les suivantes :
+Veillonella tobetsuensis Mashima et al. 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Veillonella</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veillonella</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (27 juin 2023), le genre Veillonella comprend une espèce synonyme. Il s'agit de la suivante :
+Veillonella alcalescens Prévot 1933 reconnue synonyme hétérotypique de Veillonella parvula (Veillon and Zuber 1898) Prévot 1933.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Veillonella</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veillonella</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces publiées de manière non valide</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (27 juin 2023), le genre Veillonella comprend aussi quatre espèces qui ont été publiées de manière non valide. Pour ces quatre espèce, le nom publié reste actuellement le nom préféré (mais non correct) et sont les suivantes :
 "Veillonella agrestimuris" Afrizal et al. 2022
 "Candidatus Veillonella atypica" Drancourt et al. 2004
 "Veillonella fallax" Afrizal et al. 2022
